--- a/static/productos.xlsx
+++ b/static/productos.xlsx
@@ -26,7 +26,7 @@
     <author>Miguel Angel Soto González</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Categoria</t>
   </si>
@@ -84,7 +84,13 @@
     <t>Cuál es tu talla</t>
   </si>
   <si>
-    <t>Tallas Disponible</t>
+    <t>Talla 1</t>
+  </si>
+  <si>
+    <t>Talla 2</t>
+  </si>
+  <si>
+    <t>Talla 3</t>
   </si>
 </sst>
 </file>
@@ -135,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -171,11 +177,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -226,14 +241,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -549,93 +562,105 @@
     <col min="11" max="11" width="24.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="42.95" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" s="10" customFormat="1" ht="42.95" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -647,13 +672,15 @@
       <c r="I5" s="5"/>
       <c r="J5" s="3"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="14"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
@@ -663,12 +690,14 @@
       <c r="J6" s="3"/>
       <c r="K6" s="12"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
@@ -676,11 +705,13 @@
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="12"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -694,11 +725,13 @@
       <c r="K8" s="12"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
@@ -709,8 +742,10 @@
       <c r="K9" s="12"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" ht="125.25" customHeight="1">
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -724,11 +759,13 @@
       <c r="K10" s="12"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="6"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
@@ -739,8 +776,10 @@
       <c r="K11" s="12"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -754,11 +793,13 @@
       <c r="K12" s="12"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:15" ht="125.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
@@ -769,11 +810,13 @@
       <c r="K13" s="12"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
@@ -784,8 +827,10 @@
       <c r="K14" s="12"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -799,11 +844,13 @@
       <c r="K15" s="12"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
@@ -814,8 +861,10 @@
       <c r="K16" s="12"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -829,8 +878,10 @@
       <c r="K17" s="12"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -844,8 +895,10 @@
       <c r="K18" s="12"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -859,13 +912,15 @@
       <c r="K19" s="12"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -874,13 +929,15 @@
       <c r="K20" s="12"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -889,8 +946,10 @@
       <c r="K21" s="12"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -904,13 +963,15 @@
       <c r="K22" s="12"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -919,13 +980,15 @@
       <c r="K23" s="12"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -934,11 +997,13 @@
       <c r="K24" s="12"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
@@ -949,11 +1014,13 @@
       <c r="K25" s="12"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3"/>
       <c r="F26" s="4"/>
@@ -964,11 +1031,13 @@
       <c r="K26" s="12"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
@@ -979,11 +1048,13 @@
       <c r="K27" s="12"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
@@ -994,11 +1065,13 @@
       <c r="K28" s="12"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
@@ -1009,11 +1082,13 @@
       <c r="K29" s="12"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
@@ -1024,8 +1099,10 @@
       <c r="K30" s="12"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1039,8 +1116,10 @@
       <c r="K31" s="12"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1054,8 +1133,10 @@
       <c r="K32" s="12"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1069,11 +1150,13 @@
       <c r="K33" s="12"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
@@ -1084,11 +1167,13 @@
       <c r="K34" s="12"/>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="7"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
@@ -1099,11 +1184,13 @@
       <c r="K35" s="12"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
       <c r="F36" s="4"/>
@@ -1114,13 +1201,15 @@
       <c r="K36" s="12"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="7"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1129,8 +1218,64 @@
       <c r="K37" s="12"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/static/productos.xlsx
+++ b/static/productos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="20730" windowHeight="15540"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14080"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Categoria</t>
   </si>
@@ -91,13 +91,16 @@
   </si>
   <si>
     <t>Talla 3</t>
+  </si>
+  <si>
+    <t>Precio Promoción</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -245,6 +248,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -540,80 +544,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:O3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="17" style="19" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-    </row>
-    <row r="4" spans="1:15" s="10" customFormat="1" ht="42.95" customHeight="1">
+    <row r="1" spans="1:16">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+    </row>
+    <row r="4" spans="1:16" s="10" customFormat="1" ht="43" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -639,28 +647,31 @@
         <v>9</v>
       </c>
       <c r="I4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="K4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="L4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="N4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="O4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="P4" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -669,15 +680,16 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="13"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -686,15 +698,16 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="13"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
@@ -703,15 +716,16 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -720,15 +734,16 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="14"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
@@ -737,15 +752,16 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="14"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -754,15 +770,16 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="14"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -771,15 +788,16 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="14"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="12"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -788,15 +806,16 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="14"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
-    </row>
-    <row r="13" spans="1:15" ht="125.25" customHeight="1">
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" ht="125.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -805,15 +824,16 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="14"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
@@ -822,15 +842,16 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="14"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -839,15 +860,16 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="14"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
@@ -856,15 +878,16 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="14"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="12"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -873,15 +896,16 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="14"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="12"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -890,15 +914,16 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="14"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -907,15 +932,16 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="14"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -924,15 +950,16 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="14"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -941,15 +968,16 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="14"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -958,15 +986,16 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="14"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="7"/>
@@ -975,15 +1004,16 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="14"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="7"/>
@@ -992,15 +1022,16 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="14"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="12"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1009,15 +1040,16 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="14"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="14"/>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1026,15 +1058,16 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="14"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="12"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="14"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1043,15 +1076,16 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="14"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="12"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="7"/>
@@ -1060,15 +1094,16 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="14"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="12"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="14"/>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
@@ -1077,15 +1112,16 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="14"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="12"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="14"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="7"/>
@@ -1094,15 +1130,16 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="14"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="12"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="14"/>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1111,15 +1148,16 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="14"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="12"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="14"/>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1128,15 +1166,16 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="14"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="12"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" s="14"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1145,15 +1184,16 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="14"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="12"/>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1162,15 +1202,16 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="14"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="12"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34" s="14"/>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1179,15 +1220,16 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="14"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="12"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35" s="14"/>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1196,15 +1238,16 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="14"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="12"/>
       <c r="M36" s="14"/>
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36" s="14"/>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="7"/>
@@ -1213,15 +1256,16 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="14"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="12"/>
       <c r="M37" s="14"/>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37" s="14"/>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="7"/>
@@ -1230,15 +1274,16 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="14"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="12"/>
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38" s="14"/>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="7"/>
@@ -1247,15 +1292,16 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="14"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="12"/>
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
       <c r="O39" s="14"/>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39" s="14"/>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="7"/>
@@ -1264,21 +1310,21 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="14"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="12"/>
       <c r="M40" s="14"/>
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O3"/>
+    <mergeCell ref="A1:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1288,12 +1334,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1305,12 +1351,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
